--- a/angular/src/assets/sampleFiles/ImportDriversSampleFileAr.xlsx
+++ b/angular/src/assets/sampleFiles/ImportDriversSampleFileAr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\source\tachyon-core\angular\src\assets\sampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05281A8A-8D51-44D6-A2D3-90C2ED034DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF3272-45BA-402D-BC31-A6109FA0F37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30525" yWindow="2595" windowWidth="16302" windowHeight="8517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3043" windowWidth="26219" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -122,16 +122,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -435,44 +435,44 @@
     <col min="14" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
